--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\ProgrammingFinal\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C06DB1-D729-4467-9AA0-0CB9F8DF4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DCC95B-B5F5-41CF-AA44-62FF7E04BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Sender</t>
   </si>
   <si>
-    <t>Display Name</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>x43toiugn@mars.info</t>
   </si>
   <si>
-    <t>Martian Prince</t>
-  </si>
-  <si>
     <t>Messages</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Part 3</t>
   </si>
   <si>
-    <t>Part 4</t>
-  </si>
-  <si>
     <t>Attachment</t>
   </si>
   <si>
@@ -133,6 +124,36 @@
   </si>
   <si>
     <t>MartianPrince</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>You've Lost lol</t>
+  </si>
+  <si>
+    <t>Urgent, TooGood</t>
+  </si>
+  <si>
+    <t>You've lost!</t>
+  </si>
+  <si>
+    <t>We hope this finds you at a good time</t>
+  </si>
+  <si>
+    <t>We have some exciting news to share!</t>
+  </si>
+  <si>
+    <t>We've just gotten word that you've just won a trip to London, Ontario!</t>
+  </si>
+  <si>
+    <t>We've just gotten word that you've just won a lifetime supplies of baguettes!</t>
+  </si>
+  <si>
+    <t>Your membership has been renewed for another 15 years!</t>
+  </si>
+  <si>
+    <t>Please click this link</t>
   </si>
 </sst>
 </file>
@@ -221,7 +242,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:D7" totalsRowShown="0">
   <autoFilter ref="B5:D7" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC7F5C9F-4183-4E6F-ADFC-23FE913F4713}" name="Display Name"/>
+    <tableColumn id="1" xr3:uid="{AC7F5C9F-4183-4E6F-ADFC-23FE913F4713}" name="Name"/>
     <tableColumn id="2" xr3:uid="{E290C00D-B171-4959-B032-F2D3C27CB1F6}" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{626338E8-4114-4CC1-923B-609539A926AA}" name="Type"/>
   </tableColumns>
@@ -230,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="F5:P10" totalsRowShown="0">
-  <autoFilter ref="F5:P10" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="F5:O11" totalsRowShown="0">
+  <autoFilter ref="F5:O11" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -242,9 +263,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="11">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CCC33789-24A7-4D74-8DE5-43A2F7E9CC2B}" name="Message"/>
     <tableColumn id="11" xr3:uid="{EDF7C262-246E-4825-B924-76B722405835}" name="Phishing Type"/>
     <tableColumn id="12" xr3:uid="{FE7A5F93-09A2-48D9-92CA-FFBC930E8157}" name="Sender"/>
@@ -253,7 +273,6 @@
     <tableColumn id="4" xr3:uid="{FBBAF256-45C3-4304-9BEE-6A4193692162}" name="Part 1"/>
     <tableColumn id="5" xr3:uid="{1F466CD3-F21C-493A-8261-53148332B1A0}" name="Part 2"/>
     <tableColumn id="6" xr3:uid="{146A0497-CD54-43CF-B27B-9DF2EE3B8417}" name="Part 3"/>
-    <tableColumn id="7" xr3:uid="{552F3703-A793-4662-A8D3-88A9681AF4DD}" name="Part 4"/>
     <tableColumn id="8" xr3:uid="{A0B2CB05-23CC-4500-8C53-C43654DDCED7}" name="Sign Off"/>
     <tableColumn id="9" xr3:uid="{3EF26FF0-60AE-4A0C-B07B-E81DEA1F0832}" name="Attachment"/>
   </tableColumns>
@@ -558,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
-  <dimension ref="B4:P10"/>
+  <dimension ref="B4:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,139 +592,168 @@
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="O5" t="s">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
-        <v>18</v>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:P10">
+  <conditionalFormatting sqref="F6:O11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F6&lt;&gt;""</formula>
     </cfRule>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\ProgrammingFinal\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DCC95B-B5F5-41CF-AA44-62FF7E04BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54462E5-9CE1-4B48-B440-E8C382B1A69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Sender</t>
   </si>
@@ -150,10 +150,16 @@
     <t>We've just gotten word that you've just won a lifetime supplies of baguettes!</t>
   </si>
   <si>
-    <t>Your membership has been renewed for another 15 years!</t>
-  </si>
-  <si>
-    <t>Please click this link</t>
+    <t>Click here to claim now!</t>
+  </si>
+  <si>
+    <t>Claim it at our number: 676-767-6767</t>
+  </si>
+  <si>
+    <t>Click on the attatchment to claim now!</t>
+  </si>
+  <si>
+    <t>Your membership has been renewed for another 15 years for FREE!</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="B4:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +685,7 @@
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -704,6 +710,9 @@
       <c r="L7" t="s">
         <v>40</v>
       </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
@@ -716,7 +725,10 @@
         <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\ProgrammingFinal\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54462E5-9CE1-4B48-B440-E8C382B1A69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA13101-3375-48E5-B936-1749EF41496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Sender</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Defrag</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Reminder About Phishing</t>
-  </si>
-  <si>
     <t>Hello contestant,</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>You've Lost lol</t>
   </si>
   <si>
-    <t>Urgent, TooGood</t>
-  </si>
-  <si>
     <t>You've lost!</t>
   </si>
   <si>
@@ -160,6 +151,85 @@
   </si>
   <si>
     <t>Your membership has been renewed for another 15 years for FREE!</t>
+  </si>
+  <si>
+    <t>U IS WINNER</t>
+  </si>
+  <si>
+    <t>U WIN</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>NEED HELP</t>
+  </si>
+  <si>
+    <t>Uh Oh!</t>
+  </si>
+  <si>
+    <t>Dude! Help me!</t>
+  </si>
+  <si>
+    <t>I got locked out of my computer!</t>
+  </si>
+  <si>
+    <t>Do you remember what my password is?</t>
+  </si>
+  <si>
+    <t>Send it to me via e-mail. Don't want the government to be listening to you saying it.</t>
+  </si>
+  <si>
+    <t>Cautious as always,
+- John</t>
+  </si>
+  <si>
+    <t>This is bad!</t>
+  </si>
+  <si>
+    <t>Goverment made me forget my passcode!</t>
+  </si>
+  <si>
+    <t>I've run into an issue</t>
+  </si>
+  <si>
+    <t>The sticky note where I write all my passwords is gone!</t>
+  </si>
+  <si>
+    <t>I can't log into my computer.</t>
+  </si>
+  <si>
+    <t>Please call my number if you remember it!</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>The government used a mind ray and made me forget my password!</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>yep</t>
+  </si>
+  <si>
+    <t>you lost</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>good talk</t>
+  </si>
+  <si>
+    <t>TI</t>
   </si>
 </sst>
 </file>
@@ -212,16 +282,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -257,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="F5:O11" totalsRowShown="0">
-  <autoFilter ref="F5:O11" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="F5:O26" totalsRowShown="0">
+  <autoFilter ref="F5:O26" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -583,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
-  <dimension ref="B4:O11"/>
+  <dimension ref="B4:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +696,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -670,22 +752,22 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -696,78 +778,168 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
       <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="J8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>26</v>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:O11">
+  <conditionalFormatting sqref="F6:O26">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$F6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:O29">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F6&lt;&gt;""</formula>
+      <formula>$F27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\ProgrammingFinal\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speroj\Documents\GitHub\ProgrammingFinal\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA13101-3375-48E5-B936-1749EF41496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408A240-733D-4CB8-A744-FB3660634DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Sender</t>
   </si>
@@ -180,56 +180,68 @@
     <t>Send it to me via e-mail. Don't want the government to be listening to you saying it.</t>
   </si>
   <si>
+    <t>This is bad!</t>
+  </si>
+  <si>
+    <t>Goverment made me forget my passcode!</t>
+  </si>
+  <si>
+    <t>I've run into an issue</t>
+  </si>
+  <si>
+    <t>The sticky note where I write all my passwords is gone!</t>
+  </si>
+  <si>
+    <t>I can't log into my computer.</t>
+  </si>
+  <si>
+    <t>Please call my number if you remember it!</t>
+  </si>
+  <si>
+    <t>The government used a mind ray and made me forget my password!</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>yep</t>
+  </si>
+  <si>
+    <t>you lost</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>good talk</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
     <t>Cautious as always,
-- John</t>
-  </si>
-  <si>
-    <t>This is bad!</t>
-  </si>
-  <si>
-    <t>Goverment made me forget my passcode!</t>
-  </si>
-  <si>
-    <t>I've run into an issue</t>
-  </si>
-  <si>
-    <t>The sticky note where I write all my passwords is gone!</t>
-  </si>
-  <si>
-    <t>I can't log into my computer.</t>
-  </si>
-  <si>
-    <t>Please call my number if you remember it!</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>The government used a mind ray and made me forget my password!</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>you lost</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>good talk</t>
-  </si>
-  <si>
-    <t>TI</t>
+- Q1</t>
+  </si>
+  <si>
+    <t>Jack Spero</t>
+  </si>
+  <si>
+    <t>jack@porgram.net</t>
+  </si>
+  <si>
+    <t>Mort Ified</t>
+  </si>
+  <si>
+    <t>Morty@mort.mort</t>
   </si>
 </sst>
 </file>
@@ -327,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:D7" totalsRowShown="0">
-  <autoFilter ref="B5:D7" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:D9" totalsRowShown="0">
+  <autoFilter ref="B5:D9" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AC7F5C9F-4183-4E6F-ADFC-23FE913F4713}" name="Name"/>
     <tableColumn id="2" xr3:uid="{E290C00D-B171-4959-B032-F2D3C27CB1F6}" name="Email" dataCellStyle="Hyperlink"/>
@@ -369,9 +381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -515,7 +527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,7 +680,7 @@
   <dimension ref="B4:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,16 +781,19 @@
       <c r="M6" t="s">
         <v>38</v>
       </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -797,7 +812,15 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" t="s">
         <v>42</v>
       </c>
@@ -806,6 +829,15 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
@@ -823,6 +855,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
       <c r="F10" t="s">
         <v>32</v>
       </c>
@@ -833,19 +866,19 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -859,19 +892,19 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
       <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
         <v>65</v>
-      </c>
-      <c r="M11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="60" x14ac:dyDescent="0.25">
@@ -900,35 +933,32 @@
         <v>50</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
         <v>54</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>56</v>
-      </c>
-      <c r="L16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -944,12 +974,14 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{49BFF67A-867C-4B44-971E-C4407E164B8C}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{1349B125-30C6-4728-8A05-C414E2C31FF6}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{1349B125-30C6-4728-8A05-C414E2C31FF6}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{773E95FE-04EC-4B67-BA4F-B90F3432756B}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{5224DA6B-9A82-4C11-A053-7000160197E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speroj\Documents\GitHub\ProgrammingFinal\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\ProgrammingFinal\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408A240-733D-4CB8-A744-FB3660634DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126385C4-101D-48CA-AC3C-322B3088E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Sender</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Thank you for participating in our sweepstakes</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>MartianPrince</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Send it to me via e-mail. Don't want the government to be listening to you saying it.</t>
   </si>
   <si>
-    <t>This is bad!</t>
-  </si>
-  <si>
     <t>Goverment made me forget my passcode!</t>
   </si>
   <si>
@@ -213,35 +207,104 @@
     <t>yep</t>
   </si>
   <si>
-    <t>you lost</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
     <t>good talk</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>Thanks</t>
   </si>
   <si>
+    <t>Jack Spero</t>
+  </si>
+  <si>
+    <t>jack@porgram.net</t>
+  </si>
+  <si>
+    <t>Mort Ified</t>
+  </si>
+  <si>
+    <t>Morty@mort.mort</t>
+  </si>
+  <si>
+    <t>Ryan Ram</t>
+  </si>
+  <si>
+    <t>David Ireland</t>
+  </si>
+  <si>
+    <t>ReadyToRAM@dispenser.com</t>
+  </si>
+  <si>
+    <t>IwishIwereIrish@booze.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I talked with Q2 and </t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Spero</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Ified</t>
+  </si>
+  <si>
+    <t>Xorthlap</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Mort</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>We've won</t>
+  </si>
+  <si>
+    <t>you lost - Q1</t>
+  </si>
+  <si>
+    <t>TI - Q3</t>
+  </si>
+  <si>
     <t>Cautious as always,
-- Q1</t>
-  </si>
-  <si>
-    <t>Jack Spero</t>
-  </si>
-  <si>
-    <t>jack@porgram.net</t>
-  </si>
-  <si>
-    <t>Mort Ified</t>
-  </si>
-  <si>
-    <t>Morty@mort.mort</t>
+- Q2</t>
+  </si>
+  <si>
+    <t>I just spoke to R2 and you've won!</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>This is bad P1!</t>
   </si>
 </sst>
 </file>
@@ -339,10 +402,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:D9" totalsRowShown="0">
-  <autoFilter ref="B5:D9" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:F11" totalsRowShown="0">
+  <autoFilter ref="B5:F11" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AC7F5C9F-4183-4E6F-ADFC-23FE913F4713}" name="Name"/>
+    <tableColumn id="5" xr3:uid="{F7DC21DB-8807-4833-A298-3D1BCDE6C415}" name="First Name"/>
+    <tableColumn id="4" xr3:uid="{DDFA3FEC-B52F-4337-8811-EFD828DAEEC6}" name="Last Name"/>
     <tableColumn id="2" xr3:uid="{E290C00D-B171-4959-B032-F2D3C27CB1F6}" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{626338E8-4114-4CC1-923B-609539A926AA}" name="Type"/>
   </tableColumns>
@@ -351,8 +416,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="F5:O26" totalsRowShown="0">
-  <autoFilter ref="F5:O26" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="H5:Q26" totalsRowShown="0">
+  <autoFilter ref="H5:Q26" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -381,9 +446,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +486,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,311 +742,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
-  <dimension ref="B4:O17"/>
+  <dimension ref="B4:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="N6" t="s">
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="N17" t="s">
         <v>55</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:O26">
+  <conditionalFormatting sqref="H6:Q26">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F6&lt;&gt;""</formula>
+      <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:O29">
+  <conditionalFormatting sqref="H27:Q29">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F27&lt;&gt;""</formula>
+      <formula>$H27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{49BFF67A-867C-4B44-971E-C4407E164B8C}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{1349B125-30C6-4728-8A05-C414E2C31FF6}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{773E95FE-04EC-4B67-BA4F-B90F3432756B}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{5224DA6B-9A82-4C11-A053-7000160197E7}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{49BFF67A-867C-4B44-971E-C4407E164B8C}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{1349B125-30C6-4728-8A05-C414E2C31FF6}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{773E95FE-04EC-4B67-BA4F-B90F3432756B}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{5224DA6B-9A82-4C11-A053-7000160197E7}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{7E388720-2FFB-4FCD-932A-F54833695C8F}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{A248BAB8-B78B-496A-AA69-B3D4947CA9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>